--- a/tests/client/export/1table/template.xlsx
+++ b/tests/client/export/1table/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kirsten/Development/molnify-compute/xlport/src/test/resources/test-suites/export/1table/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PeterAlbert\Desktop\test\1table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F718124F-9BD3-E14A-957A-C1F76EFC223E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{03897FB5-4010-4BBA-8874-62958281E2A6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14020" xr2:uid="{CF41F8A1-61A1-4F07-9B27-8210A5435265}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{CF41F8A1-61A1-4F07-9B27-8210A5435265}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Id</t>
   </si>
@@ -57,10 +57,28 @@
     <t>uuidInitiative1</t>
   </si>
   <si>
+    <t>uuidInitiative2</t>
+  </si>
+  <si>
+    <t>uuidInitiative3</t>
+  </si>
+  <si>
     <t>Initiative 1</t>
   </si>
   <si>
+    <t>Initiative 2</t>
+  </si>
+  <si>
+    <t>Initiative 3</t>
+  </si>
+  <si>
     <t>uuidStatus1</t>
+  </si>
+  <si>
+    <t>uuidStatus2</t>
+  </si>
+  <si>
+    <t>uuidStatus3</t>
   </si>
   <si>
     <t>Achievement</t>
@@ -490,17 +508,17 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.83203125" customWidth="1"/>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="1" max="1" width="16.81640625" customWidth="1"/>
+    <col min="3" max="3" width="14.453125" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -513,7 +531,7 @@
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -527,30 +545,30 @@
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
         <v>4</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1">
         <v>123.3</v>
@@ -572,19 +590,63 @@
         <v>146.727</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C5" s="1"/>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="2"/>
-      <c r="G5" s="4"/>
-      <c r="I5" s="1"/>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" s="4">
+        <v>24228</v>
+      </c>
+      <c r="H5">
+        <v>-246537347</v>
+      </c>
+      <c r="I5" s="1">
+        <f>Initiatives[SavingsPotential]*1.19</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="2"/>
-      <c r="G6" s="4"/>
-      <c r="I6" s="1"/>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1">
+        <v>456</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>43831</v>
+      </c>
+      <c r="H6">
+        <v>1324275242</v>
+      </c>
+      <c r="I6" s="1">
+        <f>Initiatives[SavingsPotential]*1.19</f>
+        <v>542.64</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -596,18 +658,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -782,6 +844,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{605D215D-855A-46D3-AF6E-D5A3499E903D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DCCBF7E0-111D-410E-B77E-B45DFE4B5E1E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
@@ -794,14 +864,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="72b4710f-9dac-42ee-90a5-eb867dbd68a1"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{605D215D-855A-46D3-AF6E-D5A3499E903D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/tests/client/export/1table/template.xlsx
+++ b/tests/client/export/1table/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PeterAlbert\Desktop\test\1table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kirsten/Development/molnify-compute/xlport/src/test/resources/test-suites/export/1table/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{03897FB5-4010-4BBA-8874-62958281E2A6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F718124F-9BD3-E14A-957A-C1F76EFC223E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{CF41F8A1-61A1-4F07-9B27-8210A5435265}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14020" xr2:uid="{CF41F8A1-61A1-4F07-9B27-8210A5435265}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Id</t>
   </si>
@@ -57,28 +57,10 @@
     <t>uuidInitiative1</t>
   </si>
   <si>
-    <t>uuidInitiative2</t>
-  </si>
-  <si>
-    <t>uuidInitiative3</t>
-  </si>
-  <si>
     <t>Initiative 1</t>
   </si>
   <si>
-    <t>Initiative 2</t>
-  </si>
-  <si>
-    <t>Initiative 3</t>
-  </si>
-  <si>
     <t>uuidStatus1</t>
-  </si>
-  <si>
-    <t>uuidStatus2</t>
-  </si>
-  <si>
-    <t>uuidStatus3</t>
   </si>
   <si>
     <t>Achievement</t>
@@ -508,17 +490,17 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.81640625" customWidth="1"/>
-    <col min="3" max="3" width="14.453125" customWidth="1"/>
+    <col min="1" max="1" width="16.83203125" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -531,7 +513,7 @@
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -545,30 +527,30 @@
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
         <v>4</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="I3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D4" s="1">
         <v>123.3</v>
@@ -590,63 +572,19 @@
         <v>146.727</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>14</v>
-      </c>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="2">
-        <v>0</v>
-      </c>
-      <c r="F5" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5" s="4">
-        <v>24228</v>
-      </c>
-      <c r="H5">
-        <v>-246537347</v>
-      </c>
-      <c r="I5" s="1">
-        <f>Initiatives[SavingsPotential]*1.19</f>
-        <v>0</v>
-      </c>
+      <c r="E5" s="2"/>
+      <c r="G5" s="4"/>
+      <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="1">
-        <v>456</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="F6" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6" s="4">
-        <v>43831</v>
-      </c>
-      <c r="H6">
-        <v>1324275242</v>
-      </c>
-      <c r="I6" s="1">
-        <f>Initiatives[SavingsPotential]*1.19</f>
-        <v>542.64</v>
-      </c>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="2"/>
+      <c r="G6" s="4"/>
+      <c r="I6" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -658,18 +596,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -844,14 +782,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{605D215D-855A-46D3-AF6E-D5A3499E903D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DCCBF7E0-111D-410E-B77E-B45DFE4B5E1E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
@@ -864,6 +794,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="72b4710f-9dac-42ee-90a5-eb867dbd68a1"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{605D215D-855A-46D3-AF6E-D5A3499E903D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
